--- a/covid-democracy/en/charts for blog 25.xlsx
+++ b/covid-democracy/en/charts for blog 25.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2B641B76C1C30C52A559BA507F17A28E795E41FD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A275CDC-700A-468F-81EB-F642BDBB2DC9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATTDEM chart" sheetId="13" r:id="rId1"/>
@@ -72,7 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,7 +136,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -180,7 +186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -270,7 +275,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -302,7 +306,7 @@
             <c:numRef>
               <c:f>data!$C$5:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>59.94</c:v>
@@ -322,6 +326,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDE6-4490-BE97-8C9D106543D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -386,7 +395,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -418,7 +426,7 @@
             <c:numRef>
               <c:f>data!$D$5:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>48.88</c:v>
@@ -438,6 +446,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDE6-4490-BE97-8C9D106543D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -524,7 +537,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -565,7 +578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -628,7 +640,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -678,7 +690,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,7 +799,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -831,7 +841,7 @@
             <c:numRef>
               <c:f>data!$C$16:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.5219999999999998</c:v>
@@ -848,6 +858,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A01-4B36-B47D-A3F5A1AEDC41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -912,7 +927,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -955,7 +969,7 @@
             <c:numRef>
               <c:f>data!$D$16:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>19.382000000000001</c:v>
@@ -972,6 +986,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A01-4B36-B47D-A3F5A1AEDC41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1038,7 +1057,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1081,7 +1099,7 @@
             <c:numRef>
               <c:f>data!$E$16:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42.308</c:v>
@@ -1098,6 +1116,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A01-4B36-B47D-A3F5A1AEDC41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1159,7 +1182,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1202,7 +1224,7 @@
             <c:numRef>
               <c:f>data!$F$16:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>18.404</c:v>
@@ -1219,6 +1241,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A01-4B36-B47D-A3F5A1AEDC41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1280,7 +1307,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1323,7 +1349,7 @@
             <c:numRef>
               <c:f>data!$G$16:$G$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>15.352</c:v>
@@ -1340,6 +1366,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A01-4B36-B47D-A3F5A1AEDC41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1410,7 +1441,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2040,10 +2071,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0"/>
+    <sheetView zoomScale="84" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2051,7 +2082,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
@@ -2065,10 +2096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6277429"/>
+    <xdr:ext cx="9309554" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2095,7 +2132,13 @@
     <xdr:ext cx="8666703" cy="6288593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2191,6 +2234,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2226,6 +2286,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2401,21 +2478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2511,7 @@
         <v>48.88</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2522,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2533,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2544,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2478,12 +2555,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -2500,83 +2577,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>3.5219999999999998</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>19.382000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>42.308</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>18.404</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>15.352</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>14.936400000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>44.2545</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>23.2148</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>2.1514000000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>14.5463</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>21.81</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>46.35</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>17.077000000000002</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>6.0469999999999997</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>7.48</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>8.5749999999999993</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>44.116</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>18.704999999999998</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>10.055999999999999</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>16.997</v>
       </c>
     </row>
